--- a/templates/Driver'sLisence_MockTest.xlsx
+++ b/templates/Driver'sLisence_MockTest.xlsx
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -266,6 +273,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,11 +285,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,7 +576,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -611,990 +618,990 @@
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
@@ -1636,10 +1643,10 @@
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="8"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
@@ -1647,8 +1654,8 @@
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
     </row>
@@ -1658,8 +1665,8 @@
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
     </row>
@@ -1680,10 +1687,10 @@
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
@@ -1691,10 +1698,10 @@
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
@@ -1702,10 +1709,10 @@
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="n">
@@ -1724,10 +1731,10 @@
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
@@ -1735,10 +1742,10 @@
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
@@ -1746,10 +1753,10 @@
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="n">
@@ -1768,10 +1775,10 @@
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
@@ -1779,10 +1786,10 @@
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15" t="s">
@@ -1790,10 +1797,10 @@
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="n">
@@ -1812,10 +1819,10 @@
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
@@ -1823,10 +1830,10 @@
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
@@ -1834,10 +1841,10 @@
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
